--- a/2_metal_balance/docs/2-0空表.xlsx
+++ b/2_metal_balance/docs/2-0空表.xlsx
@@ -248,17 +248,17 @@
   <numFmts count="11">
     <numFmt numFmtId="176" formatCode="0.000"/>
     <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="0.0000_ "/>
+    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="181" formatCode="0.000_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="182" formatCode="0.000_);[Red]\(0.000\)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="179" formatCode="0.000_);[Red]\(0.000\)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
-    <numFmt numFmtId="181" formatCode="0.000_ "/>
-    <numFmt numFmtId="182" formatCode="0.0000_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="33">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -370,9 +370,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -385,32 +385,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -424,7 +403,43 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -437,32 +452,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -480,18 +475,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -522,13 +515,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,7 +557,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,7 +587,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,43 +611,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,19 +635,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -642,37 +659,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,7 +671,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -857,6 +850,36 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -886,36 +909,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -931,52 +924,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -985,46 +975,49 @@
     <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1033,7 +1026,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1042,34 +1035,34 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1094,7 +1087,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1134,58 +1127,58 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="3" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="181" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="6" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1194,49 +1187,49 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="3" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="6" fillId="0" borderId="3" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1248,31 +1241,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="6" fillId="0" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="10" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="3" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="3" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1281,40 +1274,40 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="5" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="5" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1338,7 +1331,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1347,32 +1340,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1387,7 +1368,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1396,17 +1377,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 4" xfId="1"/>
-    <cellStyle name="常规 10 10 2 2 2 3" xfId="2"/>
+    <cellStyle name="常规 8 11" xfId="1"/>
+    <cellStyle name="常规 21" xfId="2"/>
     <cellStyle name="常规 19" xfId="3"/>
-    <cellStyle name="常规 21" xfId="4"/>
-    <cellStyle name="常规 8 11" xfId="5"/>
+    <cellStyle name="常规 10 10 2 2 2 3" xfId="4"/>
+    <cellStyle name="常规 4" xfId="5"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="6" builtinId="52"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="7" builtinId="42"/>
     <cellStyle name="强调文字颜色 4" xfId="8" builtinId="41"/>
@@ -1722,8 +1703,8 @@
   <sheetPr/>
   <dimension ref="A1:XFD53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="X43" sqref="X43:X44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="12.5"/>
@@ -18331,7 +18312,7 @@
       <c r="AA4" s="80"/>
       <c r="AB4" s="81"/>
       <c r="AC4" s="81"/>
-      <c r="AD4" s="91"/>
+      <c r="AD4" s="88"/>
       <c r="AE4" s="79"/>
       <c r="AF4" s="79"/>
     </row>
@@ -18367,7 +18348,7 @@
       <c r="AA5" s="82"/>
       <c r="AB5" s="81"/>
       <c r="AC5" s="81"/>
-      <c r="AD5" s="94"/>
+      <c r="AD5" s="90"/>
       <c r="AE5" s="79"/>
       <c r="AF5" s="79"/>
     </row>
@@ -18402,10 +18383,10 @@
       <c r="Z6" s="18"/>
       <c r="AA6" s="83"/>
       <c r="AB6" s="84"/>
-      <c r="AC6" s="95"/>
-      <c r="AD6" s="96"/>
-      <c r="AE6" s="97"/>
-      <c r="AF6" s="97"/>
+      <c r="AC6" s="91"/>
+      <c r="AD6" s="92"/>
+      <c r="AE6" s="93"/>
+      <c r="AF6" s="93"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="16" customHeight="1" spans="1:32">
       <c r="A7" s="12" t="s">
@@ -18438,10 +18419,10 @@
       <c r="Z7" s="18"/>
       <c r="AA7" s="83"/>
       <c r="AB7" s="84"/>
-      <c r="AC7" s="95"/>
-      <c r="AD7" s="96"/>
-      <c r="AE7" s="97"/>
-      <c r="AF7" s="97"/>
+      <c r="AC7" s="91"/>
+      <c r="AD7" s="92"/>
+      <c r="AE7" s="93"/>
+      <c r="AF7" s="93"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="16" customHeight="1" spans="1:32">
       <c r="A8" s="15" t="s">
@@ -18474,10 +18455,10 @@
       <c r="Z8" s="18"/>
       <c r="AA8" s="83"/>
       <c r="AB8" s="84"/>
-      <c r="AC8" s="95"/>
-      <c r="AD8" s="96"/>
-      <c r="AE8" s="97"/>
-      <c r="AF8" s="97"/>
+      <c r="AC8" s="91"/>
+      <c r="AD8" s="92"/>
+      <c r="AE8" s="93"/>
+      <c r="AF8" s="93"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="16" customHeight="1" spans="1:32">
       <c r="A9" s="15" t="s">
@@ -18510,10 +18491,10 @@
       <c r="Z9" s="18"/>
       <c r="AA9" s="83"/>
       <c r="AB9" s="84"/>
-      <c r="AC9" s="95"/>
-      <c r="AD9" s="96"/>
-      <c r="AE9" s="97"/>
-      <c r="AF9" s="97"/>
+      <c r="AC9" s="91"/>
+      <c r="AD9" s="92"/>
+      <c r="AE9" s="93"/>
+      <c r="AF9" s="93"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="16" customHeight="1" spans="1:32">
       <c r="A10" s="15" t="s">
@@ -18546,10 +18527,10 @@
       <c r="Z10" s="18"/>
       <c r="AA10" s="83"/>
       <c r="AB10" s="84"/>
-      <c r="AC10" s="95"/>
-      <c r="AD10" s="96"/>
-      <c r="AE10" s="97"/>
-      <c r="AF10" s="97"/>
+      <c r="AC10" s="91"/>
+      <c r="AD10" s="92"/>
+      <c r="AE10" s="93"/>
+      <c r="AF10" s="93"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="16" customHeight="1" spans="1:32">
       <c r="A11" s="16" t="s">
@@ -18582,10 +18563,10 @@
       <c r="Z11" s="18"/>
       <c r="AA11" s="85"/>
       <c r="AB11" s="84"/>
-      <c r="AC11" s="95"/>
-      <c r="AD11" s="98"/>
-      <c r="AE11" s="97"/>
-      <c r="AF11" s="97"/>
+      <c r="AC11" s="91"/>
+      <c r="AD11" s="94"/>
+      <c r="AE11" s="93"/>
+      <c r="AF11" s="93"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="16" customHeight="1" spans="1:32">
       <c r="A12" s="16" t="s">
@@ -18616,12 +18597,12 @@
       <c r="X12" s="18"/>
       <c r="Y12" s="18"/>
       <c r="Z12" s="18"/>
-      <c r="AA12" s="86"/>
+      <c r="AA12" s="85"/>
       <c r="AB12" s="84"/>
-      <c r="AC12" s="95"/>
-      <c r="AD12" s="98"/>
-      <c r="AE12" s="97"/>
-      <c r="AF12" s="97"/>
+      <c r="AC12" s="91"/>
+      <c r="AD12" s="94"/>
+      <c r="AE12" s="93"/>
+      <c r="AF12" s="93"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="16" customHeight="1" spans="1:32">
       <c r="A13" s="16" t="s">
@@ -18652,12 +18633,12 @@
       <c r="X13" s="18"/>
       <c r="Y13" s="18"/>
       <c r="Z13" s="18"/>
-      <c r="AA13" s="86"/>
+      <c r="AA13" s="85"/>
       <c r="AB13" s="84"/>
-      <c r="AC13" s="95"/>
-      <c r="AD13" s="98"/>
-      <c r="AE13" s="97"/>
-      <c r="AF13" s="97"/>
+      <c r="AC13" s="91"/>
+      <c r="AD13" s="94"/>
+      <c r="AE13" s="93"/>
+      <c r="AF13" s="93"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="16" customHeight="1" spans="1:32">
       <c r="A14" s="16" t="s">
@@ -18688,12 +18669,12 @@
       <c r="X14" s="18"/>
       <c r="Y14" s="18"/>
       <c r="Z14" s="18"/>
-      <c r="AA14" s="86"/>
+      <c r="AA14" s="85"/>
       <c r="AB14" s="84"/>
-      <c r="AC14" s="95"/>
-      <c r="AD14" s="98"/>
-      <c r="AE14" s="97"/>
-      <c r="AF14" s="97"/>
+      <c r="AC14" s="91"/>
+      <c r="AD14" s="94"/>
+      <c r="AE14" s="93"/>
+      <c r="AF14" s="93"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="16" customHeight="1" spans="1:32">
       <c r="A15" s="16" t="s">
@@ -18724,12 +18705,12 @@
       <c r="X15" s="18"/>
       <c r="Y15" s="18"/>
       <c r="Z15" s="18"/>
-      <c r="AA15" s="86"/>
+      <c r="AA15" s="85"/>
       <c r="AB15" s="84"/>
-      <c r="AC15" s="95"/>
-      <c r="AD15" s="98"/>
-      <c r="AE15" s="97"/>
-      <c r="AF15" s="97"/>
+      <c r="AC15" s="91"/>
+      <c r="AD15" s="94"/>
+      <c r="AE15" s="93"/>
+      <c r="AF15" s="93"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="16" customHeight="1" spans="1:32">
       <c r="A16" s="16" t="s">
@@ -18760,12 +18741,12 @@
       <c r="X16" s="18"/>
       <c r="Y16" s="18"/>
       <c r="Z16" s="18"/>
-      <c r="AA16" s="86"/>
+      <c r="AA16" s="85"/>
       <c r="AB16" s="84"/>
-      <c r="AC16" s="95"/>
-      <c r="AD16" s="98"/>
-      <c r="AE16" s="97"/>
-      <c r="AF16" s="97"/>
+      <c r="AC16" s="91"/>
+      <c r="AD16" s="94"/>
+      <c r="AE16" s="93"/>
+      <c r="AF16" s="93"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="16" customHeight="1" spans="1:32">
       <c r="A17" s="19" t="s">
@@ -18838,10 +18819,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA17" s="87"/>
+      <c r="AA17" s="81"/>
       <c r="AB17" s="81"/>
       <c r="AC17" s="81"/>
-      <c r="AD17" s="91"/>
+      <c r="AD17" s="88"/>
       <c r="AE17" s="79"/>
       <c r="AF17" s="79"/>
     </row>
@@ -18877,7 +18858,7 @@
       <c r="AA18" s="82"/>
       <c r="AB18" s="81"/>
       <c r="AC18" s="81"/>
-      <c r="AD18" s="99"/>
+      <c r="AD18" s="95"/>
       <c r="AE18" s="79"/>
       <c r="AF18" s="79"/>
     </row>
@@ -18912,10 +18893,10 @@
       <c r="Z19" s="42"/>
       <c r="AA19" s="85"/>
       <c r="AB19" s="84"/>
-      <c r="AC19" s="100"/>
-      <c r="AD19" s="98"/>
-      <c r="AE19" s="97"/>
-      <c r="AF19" s="97"/>
+      <c r="AC19" s="96"/>
+      <c r="AD19" s="94"/>
+      <c r="AE19" s="93"/>
+      <c r="AF19" s="93"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="16" customHeight="1" spans="1:32">
       <c r="A20" s="23" t="s">
@@ -18948,10 +18929,10 @@
       <c r="Z20" s="42"/>
       <c r="AA20" s="85"/>
       <c r="AB20" s="84"/>
-      <c r="AC20" s="100"/>
-      <c r="AD20" s="98"/>
-      <c r="AE20" s="97"/>
-      <c r="AF20" s="97"/>
+      <c r="AC20" s="96"/>
+      <c r="AD20" s="94"/>
+      <c r="AE20" s="93"/>
+      <c r="AF20" s="93"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="16" customHeight="1" spans="1:32">
       <c r="A21" s="23" t="s">
@@ -18984,10 +18965,10 @@
       <c r="Z21" s="42"/>
       <c r="AA21" s="85"/>
       <c r="AB21" s="84"/>
-      <c r="AC21" s="100"/>
-      <c r="AD21" s="98"/>
-      <c r="AE21" s="97"/>
-      <c r="AF21" s="97"/>
+      <c r="AC21" s="96"/>
+      <c r="AD21" s="94"/>
+      <c r="AE21" s="93"/>
+      <c r="AF21" s="93"/>
     </row>
     <row r="22" s="1" customFormat="1" ht="16" customHeight="1" spans="1:32">
       <c r="A22" s="23" t="s">
@@ -19020,10 +19001,10 @@
       <c r="Z22" s="42"/>
       <c r="AA22" s="85"/>
       <c r="AB22" s="84"/>
-      <c r="AC22" s="101"/>
-      <c r="AD22" s="98"/>
-      <c r="AE22" s="97"/>
-      <c r="AF22" s="97"/>
+      <c r="AC22" s="97"/>
+      <c r="AD22" s="94"/>
+      <c r="AE22" s="93"/>
+      <c r="AF22" s="93"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="16" customHeight="1" spans="1:32">
       <c r="A23" s="23" t="s">
@@ -19057,9 +19038,9 @@
       <c r="AA23" s="85"/>
       <c r="AB23" s="84"/>
       <c r="AC23" s="84"/>
-      <c r="AD23" s="98"/>
-      <c r="AE23" s="97"/>
-      <c r="AF23" s="97"/>
+      <c r="AD23" s="94"/>
+      <c r="AE23" s="93"/>
+      <c r="AF23" s="93"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="16" customHeight="1" spans="1:32">
       <c r="A24" s="23" t="s">
@@ -19093,9 +19074,9 @@
       <c r="AA24" s="85"/>
       <c r="AB24" s="84"/>
       <c r="AC24" s="84"/>
-      <c r="AD24" s="98"/>
-      <c r="AE24" s="97"/>
-      <c r="AF24" s="97"/>
+      <c r="AD24" s="94"/>
+      <c r="AE24" s="93"/>
+      <c r="AF24" s="93"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="16" customHeight="1" spans="1:32">
       <c r="A25" s="23" t="s">
@@ -19129,9 +19110,9 @@
       <c r="AA25" s="85"/>
       <c r="AB25" s="84"/>
       <c r="AC25" s="84"/>
-      <c r="AD25" s="98"/>
-      <c r="AE25" s="97"/>
-      <c r="AF25" s="97"/>
+      <c r="AD25" s="94"/>
+      <c r="AE25" s="93"/>
+      <c r="AF25" s="93"/>
     </row>
     <row r="26" s="1" customFormat="1" ht="16" customHeight="1" spans="1:32">
       <c r="A26" s="23" t="s">
@@ -19165,9 +19146,9 @@
       <c r="AA26" s="85"/>
       <c r="AB26" s="84"/>
       <c r="AC26" s="84"/>
-      <c r="AD26" s="102"/>
-      <c r="AE26" s="97"/>
-      <c r="AF26" s="97"/>
+      <c r="AD26" s="98"/>
+      <c r="AE26" s="93"/>
+      <c r="AF26" s="93"/>
     </row>
     <row r="27" s="1" customFormat="1" ht="16" customHeight="1" spans="1:32">
       <c r="A27" s="23" t="s">
@@ -19200,10 +19181,10 @@
       <c r="Z27" s="42"/>
       <c r="AA27" s="85"/>
       <c r="AB27" s="84"/>
-      <c r="AC27" s="95"/>
-      <c r="AD27" s="96"/>
-      <c r="AE27" s="97"/>
-      <c r="AF27" s="97"/>
+      <c r="AC27" s="91"/>
+      <c r="AD27" s="92"/>
+      <c r="AE27" s="93"/>
+      <c r="AF27" s="93"/>
     </row>
     <row r="28" s="1" customFormat="1" ht="16" customHeight="1" spans="1:32">
       <c r="A28" s="23" t="s">
@@ -19237,9 +19218,9 @@
       <c r="AA28" s="85"/>
       <c r="AB28" s="84"/>
       <c r="AC28" s="84"/>
-      <c r="AD28" s="96"/>
-      <c r="AE28" s="97"/>
-      <c r="AF28" s="97"/>
+      <c r="AD28" s="92"/>
+      <c r="AE28" s="93"/>
+      <c r="AF28" s="93"/>
     </row>
     <row r="29" s="1" customFormat="1" ht="16" customHeight="1" spans="1:32">
       <c r="A29" s="23" t="s">
@@ -19273,9 +19254,9 @@
       <c r="AA29" s="85"/>
       <c r="AB29" s="84"/>
       <c r="AC29" s="84"/>
-      <c r="AD29" s="96"/>
-      <c r="AE29" s="97"/>
-      <c r="AF29" s="97"/>
+      <c r="AD29" s="92"/>
+      <c r="AE29" s="93"/>
+      <c r="AF29" s="93"/>
     </row>
     <row r="30" s="1" customFormat="1" ht="16" customHeight="1" spans="1:32">
       <c r="A30" s="23" t="s">
@@ -19309,9 +19290,9 @@
       <c r="AA30" s="85"/>
       <c r="AB30" s="84"/>
       <c r="AC30" s="84"/>
-      <c r="AD30" s="98"/>
-      <c r="AE30" s="97"/>
-      <c r="AF30" s="97"/>
+      <c r="AD30" s="94"/>
+      <c r="AE30" s="93"/>
+      <c r="AF30" s="93"/>
     </row>
     <row r="31" s="1" customFormat="1" ht="16" customHeight="1" spans="1:32">
       <c r="A31" s="16" t="s">
@@ -19345,9 +19326,9 @@
       <c r="AA31" s="85"/>
       <c r="AB31" s="84"/>
       <c r="AC31" s="84"/>
-      <c r="AD31" s="98"/>
-      <c r="AE31" s="97"/>
-      <c r="AF31" s="97"/>
+      <c r="AD31" s="94"/>
+      <c r="AE31" s="93"/>
+      <c r="AF31" s="93"/>
     </row>
     <row r="32" s="1" customFormat="1" ht="16" customHeight="1" spans="1:32">
       <c r="A32" s="16" t="s">
@@ -19381,9 +19362,9 @@
       <c r="AA32" s="85"/>
       <c r="AB32" s="84"/>
       <c r="AC32" s="84"/>
-      <c r="AD32" s="98"/>
-      <c r="AE32" s="97"/>
-      <c r="AF32" s="97"/>
+      <c r="AD32" s="94"/>
+      <c r="AE32" s="93"/>
+      <c r="AF32" s="93"/>
     </row>
     <row r="33" s="1" customFormat="1" ht="16" customHeight="1" spans="1:32">
       <c r="A33" s="16" t="s">
@@ -19417,9 +19398,9 @@
       <c r="AA33" s="85"/>
       <c r="AB33" s="84"/>
       <c r="AC33" s="84"/>
-      <c r="AD33" s="98"/>
-      <c r="AE33" s="97"/>
-      <c r="AF33" s="97"/>
+      <c r="AD33" s="94"/>
+      <c r="AE33" s="93"/>
+      <c r="AF33" s="93"/>
     </row>
     <row r="34" s="1" customFormat="1" ht="16" customHeight="1" spans="1:32">
       <c r="A34" s="16" t="s">
@@ -19453,9 +19434,9 @@
       <c r="AA34" s="85"/>
       <c r="AB34" s="84"/>
       <c r="AC34" s="84"/>
-      <c r="AD34" s="98"/>
-      <c r="AE34" s="97"/>
-      <c r="AF34" s="97"/>
+      <c r="AD34" s="94"/>
+      <c r="AE34" s="93"/>
+      <c r="AF34" s="93"/>
     </row>
     <row r="35" s="1" customFormat="1" ht="16" customHeight="1" spans="1:32">
       <c r="A35" s="24" t="s">
@@ -19519,10 +19500,10 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AA35" s="88"/>
+      <c r="AA35" s="86"/>
       <c r="AB35" s="81"/>
-      <c r="AC35" s="103"/>
-      <c r="AD35" s="99"/>
+      <c r="AC35" s="99"/>
+      <c r="AD35" s="95"/>
       <c r="AE35" s="79"/>
       <c r="AF35" s="79"/>
     </row>
@@ -19556,11 +19537,11 @@
       <c r="W36" s="73"/>
       <c r="X36" s="73"/>
       <c r="Y36" s="73"/>
-      <c r="Z36" s="89"/>
-      <c r="AA36" s="88"/>
+      <c r="Z36" s="87"/>
+      <c r="AA36" s="86"/>
       <c r="AB36" s="81"/>
-      <c r="AC36" s="103"/>
-      <c r="AD36" s="91"/>
+      <c r="AC36" s="99"/>
+      <c r="AD36" s="88"/>
       <c r="AE36" s="79"/>
       <c r="AF36" s="79"/>
     </row>
@@ -19595,10 +19576,10 @@
       <c r="Z37" s="42"/>
       <c r="AA37" s="85"/>
       <c r="AB37" s="84"/>
-      <c r="AC37" s="100"/>
-      <c r="AD37" s="98"/>
-      <c r="AE37" s="97"/>
-      <c r="AF37" s="97"/>
+      <c r="AC37" s="96"/>
+      <c r="AD37" s="94"/>
+      <c r="AE37" s="93"/>
+      <c r="AF37" s="93"/>
     </row>
     <row r="38" s="1" customFormat="1" ht="16" customHeight="1" spans="1:31">
       <c r="A38" s="25" t="s">
@@ -19621,7 +19602,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="25">
-        <f t="shared" si="7"/>
+        <f>SUM(I37:I37)</f>
         <v>0</v>
       </c>
       <c r="J38" s="25"/>
@@ -19659,10 +19640,10 @@
       <c r="X38" s="36"/>
       <c r="Y38" s="36"/>
       <c r="Z38" s="36"/>
-      <c r="AA38" s="88"/>
+      <c r="AA38" s="86"/>
       <c r="AB38" s="81"/>
-      <c r="AC38" s="103"/>
-      <c r="AD38" s="91"/>
+      <c r="AC38" s="99"/>
+      <c r="AD38" s="88"/>
       <c r="AE38" s="79"/>
     </row>
     <row r="39" s="1" customFormat="1" ht="16" customHeight="1" spans="1:31">
@@ -19696,10 +19677,10 @@
       <c r="X39" s="75"/>
       <c r="Y39" s="32"/>
       <c r="Z39" s="75"/>
-      <c r="AA39" s="90"/>
+      <c r="AA39" s="82"/>
       <c r="AB39" s="81"/>
-      <c r="AC39" s="103"/>
-      <c r="AD39" s="91"/>
+      <c r="AC39" s="99"/>
+      <c r="AD39" s="88"/>
       <c r="AE39" s="79"/>
     </row>
     <row r="40" s="1" customFormat="1" ht="16" customHeight="1" spans="1:31">
@@ -19733,9 +19714,9 @@
       <c r="Z40" s="42"/>
       <c r="AA40" s="85"/>
       <c r="AB40" s="84"/>
-      <c r="AC40" s="100"/>
-      <c r="AD40" s="98"/>
-      <c r="AE40" s="97"/>
+      <c r="AC40" s="96"/>
+      <c r="AD40" s="94"/>
+      <c r="AE40" s="93"/>
     </row>
     <row r="41" s="1" customFormat="1" ht="17" customHeight="1" spans="1:31">
       <c r="A41" s="36" t="s">
@@ -19799,10 +19780,10 @@
       <c r="X41" s="36"/>
       <c r="Y41" s="36"/>
       <c r="Z41" s="36"/>
-      <c r="AA41" s="88"/>
-      <c r="AB41" s="91"/>
-      <c r="AC41" s="91"/>
-      <c r="AD41" s="91"/>
+      <c r="AA41" s="86"/>
+      <c r="AB41" s="88"/>
+      <c r="AC41" s="88"/>
+      <c r="AD41" s="88"/>
       <c r="AE41" s="79"/>
     </row>
     <row r="42" s="1" customFormat="1" ht="16" customHeight="1" spans="1:31">
@@ -19838,9 +19819,9 @@
       <c r="Z42" s="9"/>
       <c r="AA42" s="85"/>
       <c r="AB42" s="84"/>
-      <c r="AC42" s="100"/>
-      <c r="AD42" s="98"/>
-      <c r="AE42" s="97"/>
+      <c r="AC42" s="96"/>
+      <c r="AD42" s="94"/>
+      <c r="AE42" s="93"/>
     </row>
     <row r="43" s="1" customFormat="1" ht="16" customHeight="1" spans="1:31">
       <c r="A43" s="23" t="s">
@@ -19873,9 +19854,9 @@
       <c r="Z43" s="42"/>
       <c r="AA43" s="85"/>
       <c r="AB43" s="84"/>
-      <c r="AC43" s="100"/>
-      <c r="AD43" s="98"/>
-      <c r="AE43" s="97"/>
+      <c r="AC43" s="96"/>
+      <c r="AD43" s="94"/>
+      <c r="AE43" s="93"/>
     </row>
     <row r="44" s="1" customFormat="1" ht="16" customHeight="1" spans="1:31">
       <c r="A44" s="23" t="s">
@@ -19908,9 +19889,9 @@
       <c r="Z44" s="42"/>
       <c r="AA44" s="85"/>
       <c r="AB44" s="84"/>
-      <c r="AC44" s="100"/>
-      <c r="AD44" s="98"/>
-      <c r="AE44" s="97"/>
+      <c r="AC44" s="96"/>
+      <c r="AD44" s="94"/>
+      <c r="AE44" s="93"/>
     </row>
     <row r="45" s="1" customFormat="1" ht="17" customHeight="1" spans="1:31">
       <c r="A45" s="36" t="s">
@@ -19950,10 +19931,10 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AA45" s="88"/>
-      <c r="AB45" s="91"/>
-      <c r="AC45" s="91"/>
-      <c r="AD45" s="91"/>
+      <c r="AA45" s="86"/>
+      <c r="AB45" s="88"/>
+      <c r="AC45" s="88"/>
+      <c r="AD45" s="88"/>
       <c r="AE45" s="79"/>
     </row>
     <row r="46" s="1" customFormat="1" ht="16" customHeight="1" spans="1:31">
@@ -19991,9 +19972,9 @@
       <c r="Z46" s="9"/>
       <c r="AA46" s="85"/>
       <c r="AB46" s="84"/>
-      <c r="AC46" s="100"/>
-      <c r="AD46" s="98"/>
-      <c r="AE46" s="97"/>
+      <c r="AC46" s="96"/>
+      <c r="AD46" s="94"/>
+      <c r="AE46" s="93"/>
     </row>
     <row r="47" s="1" customFormat="1" ht="16" customHeight="1" spans="1:31">
       <c r="A47" s="23" t="s">
@@ -20026,9 +20007,9 @@
       <c r="Z47" s="42"/>
       <c r="AA47" s="85"/>
       <c r="AB47" s="84"/>
-      <c r="AC47" s="100"/>
-      <c r="AD47" s="98"/>
-      <c r="AE47" s="97"/>
+      <c r="AC47" s="96"/>
+      <c r="AD47" s="94"/>
+      <c r="AE47" s="93"/>
     </row>
     <row r="48" s="1" customFormat="1" ht="17" customHeight="1" spans="1:31">
       <c r="A48" s="36" t="s">
@@ -20101,10 +20082,10 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AA48" s="88"/>
-      <c r="AB48" s="91"/>
-      <c r="AC48" s="91"/>
-      <c r="AD48" s="91"/>
+      <c r="AA48" s="86"/>
+      <c r="AB48" s="88"/>
+      <c r="AC48" s="88"/>
+      <c r="AD48" s="88"/>
       <c r="AE48" s="79"/>
     </row>
     <row r="49" s="1" customFormat="1" ht="17" customHeight="1" spans="1:31">
@@ -20166,7 +20147,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Z49" s="72"/>
-      <c r="AA49" s="92"/>
+      <c r="AA49" s="86"/>
       <c r="AB49" s="79"/>
       <c r="AC49" s="79"/>
       <c r="AD49" s="79"/>
@@ -20216,7 +20197,7 @@
       <c r="X50" s="36"/>
       <c r="Y50" s="72"/>
       <c r="Z50" s="72"/>
-      <c r="AA50" s="92"/>
+      <c r="AA50" s="86"/>
       <c r="AB50" s="79"/>
       <c r="AC50" s="79"/>
       <c r="AD50" s="79"/>
@@ -36641,7 +36622,7 @@
       <c r="X52" s="47"/>
       <c r="Y52" s="47"/>
       <c r="Z52" s="47"/>
-      <c r="AA52" s="93"/>
+      <c r="AA52" s="89"/>
       <c r="AB52" s="1"/>
       <c r="AC52" s="1"/>
       <c r="AD52" s="1"/>
